--- a/笔记/二阶段/Day30--SQL注入/ASCII码对照表.xlsx
+++ b/笔记/二阶段/Day30--SQL注入/ASCII码对照表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HE\tools\secNote\笔记\二阶段\Day30--SQL注入\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE6F056-877E-4422-BD13-90A7A102AE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A077E993-97B1-419F-9491-03EDA44F95C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1971,8 +1971,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A121" sqref="A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
